--- a/regionseng/2/agriculture/1. Annual crops.xlsx
+++ b/regionseng/2/agriculture/1. Annual crops.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\სამეგრელო-ზემო სვანეთი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\სამეგრელო-ზემო სვანეთი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984DF8CE-B6C0-48DB-85A8-6B417D4CBF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="18">
   <si>
     <t>Wheat</t>
   </si>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -247,9 +246,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -258,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,23 +351,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -404,23 +386,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,28 +576,30 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,8 +651,14 @@
       <c r="Q2" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -737,8 +710,14 @@
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -790,8 +769,14 @@
       <c r="Q4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -843,8 +828,14 @@
       <c r="Q5" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -896,8 +887,14 @@
       <c r="Q6" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -949,8 +946,14 @@
       <c r="Q7" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1002,8 +1005,14 @@
       <c r="Q8" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1055,8 +1064,14 @@
       <c r="Q9" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1108,8 +1123,14 @@
       <c r="Q10" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1161,8 +1182,14 @@
       <c r="Q11" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1241,14 @@
       <c r="Q12" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1267,8 +1300,14 @@
       <c r="Q13" s="9">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="S13" s="9">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1320,8 +1359,14 @@
       <c r="Q14" s="9">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S14" s="9">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1373,8 +1418,14 @@
       <c r="Q15" s="9">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S15" s="9">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1426,8 +1477,14 @@
       <c r="Q16" s="9">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="S16" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1479,8 +1536,14 @@
       <c r="Q17" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1532,8 +1595,14 @@
       <c r="Q18" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1585,8 +1654,14 @@
       <c r="Q19" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1638,8 +1713,14 @@
       <c r="Q20" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -1691,8 +1772,14 @@
       <c r="Q21" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1744,8 +1831,14 @@
       <c r="Q22" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1797,8 +1890,14 @@
       <c r="Q23" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
@@ -1850,8 +1949,14 @@
       <c r="Q24" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
@@ -1903,8 +2008,14 @@
       <c r="Q25" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1956,8 +2067,14 @@
       <c r="Q26" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2009,8 +2126,14 @@
       <c r="Q27" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -2062,8 +2185,14 @@
       <c r="Q28" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
@@ -2115,8 +2244,14 @@
       <c r="Q29" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
@@ -2168,8 +2303,14 @@
       <c r="Q30" s="9">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="9">
+        <v>4</v>
+      </c>
+      <c r="S30" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -2221,8 +2362,14 @@
       <c r="Q31" s="9">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R31" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S31" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2274,8 +2421,14 @@
       <c r="Q32" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S32" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2327,8 +2480,14 @@
       <c r="Q33" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -2380,8 +2539,14 @@
       <c r="Q34" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2433,8 +2598,14 @@
       <c r="Q35" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2486,8 +2657,14 @@
       <c r="Q36" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -2539,8 +2716,14 @@
       <c r="Q37" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S37" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -2592,8 +2775,14 @@
       <c r="Q38" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
@@ -2645,8 +2834,14 @@
       <c r="Q39" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -2698,8 +2893,14 @@
       <c r="Q40" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
@@ -2751,8 +2952,14 @@
       <c r="Q41" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -2804,8 +3011,14 @@
       <c r="Q42" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2857,8 +3070,14 @@
       <c r="Q43" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
@@ -2910,8 +3129,14 @@
       <c r="Q44" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
@@ -2963,8 +3188,14 @@
       <c r="Q45" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
@@ -3016,76 +3247,82 @@
       <c r="Q46" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="R46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
     </row>
     <row r="49" spans="1:17" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A47:Q47"/>
     <mergeCell ref="A48:Q48"/>
     <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
